--- a/uploads/Training Reports.xlsx
+++ b/uploads/Training Reports.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\trainingcoverage\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AE759B-63B6-4DA9-94C8-E542E443C3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF64B7E-03A9-4E93-9B1E-1719BD8803C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{203E7459-BD41-43DA-A42C-B55E75F676D6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t xml:space="preserve">                 PT GREAT GIANT PINEAPPLE</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>Codesub</t>
+  </si>
+  <si>
+    <t>Trainers</t>
+  </si>
+  <si>
+    <t>Lembaga</t>
+  </si>
+  <si>
+    <t>Credit Hours</t>
   </si>
 </sst>
 </file>
@@ -948,7 +957,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1063,11 +1072,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="21" t="str">
-        <f t="shared" ref="C8:C10" si="0">": "</f>
+        <f t="shared" ref="C8:C9" si="0">": "</f>
         <v xml:space="preserve">: </v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="25"/>
     </row>
@@ -1081,11 +1092,16 @@
         <v xml:space="preserve">: </v>
       </c>
       <c r="D9" s="7"/>
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="24"/>
-      <c r="B10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C10" s="21"/>
       <c r="D10" s="7"/>
       <c r="E10" s="26"/>
